--- a/biology/Médecine/Hôpital_intercommunal_de_Steinfort/Hôpital_intercommunal_de_Steinfort.xlsx
+++ b/biology/Médecine/Hôpital_intercommunal_de_Steinfort/Hôpital_intercommunal_de_Steinfort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_intercommunal_de_Steinfort</t>
+          <t>Hôpital_intercommunal_de_Steinfort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital intercommunal de Steinfort (abrégé en HIS) est un hôpital spécialisé dans la rééducation gériatrique de l'ouest du Luxembourg, créé en 1957.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_intercommunal_de_Steinfort</t>
+          <t>Hôpital_intercommunal_de_Steinfort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1898 au début des 1930, un premier hôpital exista à Steinfort à l'initiative des frères Collart, qui exploitaient alors une usine, dont la fin de l'activité marqua celle de l'hôpital, qui fut reconverti en maison de retraite ; le bâtiment est rasé en 1993[1].
-Après la guerre, le bourgmestre de Steinfort décide de créer un nouvel hôpital dans le château de la famille Collart qui est en ruines ; la nouvelle structure est inaugurée en novembre 1957[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1898 au début des 1930, un premier hôpital exista à Steinfort à l'initiative des frères Collart, qui exploitaient alors une usine, dont la fin de l'activité marqua celle de l'hôpital, qui fut reconverti en maison de retraite ; le bâtiment est rasé en 1993.
+Après la guerre, le bourgmestre de Steinfort décide de créer un nouvel hôpital dans le château de la famille Collart qui est en ruines ; la nouvelle structure est inaugurée en novembre 1957.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_intercommunal_de_Steinfort</t>
+          <t>Hôpital_intercommunal_de_Steinfort</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le HIS est administré par un syndicat intercommunal formé initialement par les communes de Steinfort, Hobscheid, Koerich, Garnich et Saeul et créé par l'arrêté grand-ducal du 11 janvier 1957[2]. En 2008, la commune de Septfontaines rejoint le syndicat[3] puis en 2018, le nouvelle commune de Habscht se substitue aux communes de Hobscheid et Septfontaines.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le HIS est administré par un syndicat intercommunal formé initialement par les communes de Steinfort, Hobscheid, Koerich, Garnich et Saeul et créé par l'arrêté grand-ducal du 11 janvier 1957. En 2008, la commune de Septfontaines rejoint le syndicat puis en 2018, le nouvelle commune de Habscht se substitue aux communes de Hobscheid et Septfontaines.
 </t>
         </is>
       </c>
